--- a/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
@@ -24,16 +24,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,21 +49,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,27 +420,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -463,27 +438,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -494,27 +456,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -525,27 +474,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -556,27 +492,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -587,27 +510,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -618,27 +528,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -649,27 +546,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
@@ -420,14 +420,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -438,14 +955,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -456,14 +1490,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -474,14 +2025,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -492,14 +2560,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -510,14 +3095,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -528,14 +3630,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -546,14 +4165,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Honda HR-V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dacia Jogger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz C-Class</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kia EV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VW Multivan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
@@ -446,7 +446,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,7 +458,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,7 +470,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -470,7 +482,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,7 +494,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -486,7 +506,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -494,7 +518,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -502,7 +530,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -510,7 +542,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -518,7 +554,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -526,7 +566,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -534,7 +578,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -542,7 +590,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -550,7 +602,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -558,7 +614,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -566,7 +626,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -574,7 +638,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -582,7 +650,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -590,7 +662,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -598,7 +674,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -606,7 +686,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -614,7 +698,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -622,7 +710,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -630,7 +722,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -638,7 +734,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -646,7 +746,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -654,7 +758,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -662,7 +770,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -670,7 +782,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -678,7 +794,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -686,7 +806,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -694,7 +818,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -702,7 +830,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -710,7 +842,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -718,7 +854,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -726,7 +866,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -734,7 +878,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -742,7 +890,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -750,7 +902,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -758,7 +914,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -766,7 +926,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -774,7 +938,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -782,7 +950,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -790,7 +962,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -798,7 +974,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -806,7 +986,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -814,7 +998,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -822,7 +1010,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -830,7 +1022,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -838,7 +1034,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -846,7 +1046,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -854,7 +1058,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -862,7 +1070,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -870,7 +1082,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -878,7 +1094,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -886,7 +1106,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -894,7 +1118,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -902,7 +1130,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -910,7 +1142,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -918,7 +1154,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -926,7 +1166,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -934,7 +1178,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -942,7 +1190,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -981,7 +1233,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -989,7 +1245,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -997,7 +1257,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1005,7 +1269,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1013,7 +1281,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1021,7 +1293,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1029,7 +1305,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1037,7 +1317,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1045,7 +1329,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1053,7 +1341,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1061,7 +1353,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1069,7 +1365,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1077,7 +1377,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1085,7 +1389,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1093,7 +1401,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1101,7 +1413,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1109,7 +1425,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1117,7 +1437,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1125,7 +1449,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1133,7 +1461,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1141,7 +1473,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1149,7 +1485,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1157,7 +1497,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1165,7 +1509,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1173,7 +1521,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1181,7 +1533,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1189,7 +1545,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1197,7 +1557,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1205,7 +1569,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1213,7 +1581,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1221,7 +1593,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1229,7 +1605,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1237,7 +1617,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1245,7 +1629,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1253,7 +1641,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1261,7 +1653,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1269,7 +1665,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1277,7 +1677,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1285,7 +1689,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1293,7 +1701,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1301,7 +1713,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1309,7 +1725,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1317,7 +1737,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1325,7 +1749,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1333,7 +1761,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1341,7 +1773,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1349,7 +1785,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1357,7 +1797,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1365,7 +1809,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1373,7 +1821,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1381,7 +1833,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1389,7 +1845,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1397,7 +1857,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1405,7 +1869,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1413,7 +1881,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1421,7 +1893,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1429,7 +1905,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1437,7 +1917,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1445,7 +1929,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1453,7 +1941,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1461,7 +1953,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1469,7 +1965,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1477,7 +1977,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1516,7 +2020,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1524,7 +2032,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1532,7 +2044,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,7 +2056,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1548,7 +2068,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1556,7 +2080,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1564,7 +2092,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1572,7 +2104,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1580,7 +2116,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1588,7 +2128,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1596,7 +2140,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1604,7 +2152,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1612,7 +2164,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1620,7 +2176,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1628,7 +2188,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1636,7 +2200,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1644,7 +2212,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1652,7 +2224,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1660,7 +2236,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1668,7 +2248,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1676,7 +2260,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1684,7 +2272,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1692,7 +2284,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1700,7 +2296,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1708,7 +2308,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1716,7 +2320,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1724,7 +2332,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1732,7 +2344,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1740,7 +2356,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1748,7 +2368,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1756,7 +2380,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1764,7 +2392,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1772,7 +2404,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1780,7 +2416,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1788,7 +2428,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1796,7 +2440,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1804,7 +2452,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1812,7 +2464,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1820,7 +2476,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1828,7 +2488,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1836,7 +2500,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1844,7 +2512,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1852,7 +2524,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1860,7 +2536,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1868,7 +2548,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1876,7 +2560,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1884,7 +2572,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1892,7 +2584,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1900,7 +2596,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1908,7 +2608,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1916,7 +2620,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1924,7 +2632,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1932,7 +2644,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1940,7 +2656,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1948,7 +2668,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1956,7 +2680,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1964,7 +2692,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1972,7 +2704,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1980,7 +2716,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1988,7 +2728,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1996,7 +2740,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2004,7 +2752,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2012,7 +2764,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2051,7 +2807,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2059,7 +2819,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2067,7 +2831,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2075,7 +2843,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2083,7 +2855,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2091,7 +2867,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2099,7 +2879,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2107,7 +2891,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2115,7 +2903,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2123,7 +2915,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2131,7 +2927,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2139,7 +2939,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2147,7 +2951,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2155,7 +2963,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2163,7 +2975,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2171,7 +2987,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2179,7 +2999,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2187,7 +3011,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2195,7 +3023,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2203,7 +3035,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2211,7 +3047,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2219,7 +3059,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2227,7 +3071,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2235,7 +3083,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2243,7 +3095,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2251,7 +3107,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2259,7 +3119,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2267,7 +3131,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2275,7 +3143,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2283,7 +3155,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2291,7 +3167,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2299,7 +3179,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2307,7 +3191,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2315,7 +3203,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2323,7 +3215,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2331,7 +3227,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2339,7 +3239,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2347,7 +3251,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2355,7 +3263,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2363,7 +3275,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2371,7 +3287,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2379,7 +3299,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2387,7 +3311,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2395,7 +3323,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2403,7 +3335,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2411,7 +3347,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2419,7 +3359,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2427,7 +3371,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2435,7 +3383,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2443,7 +3395,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2451,7 +3407,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2459,7 +3419,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2467,7 +3431,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2475,7 +3443,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2483,7 +3455,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2491,7 +3467,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2499,7 +3479,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2507,7 +3491,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2515,7 +3503,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2523,7 +3515,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2531,7 +3527,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2539,7 +3539,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2547,7 +3551,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2586,7 +3594,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2594,7 +3606,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2602,7 +3618,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2610,7 +3630,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2618,7 +3642,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2626,7 +3654,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2634,7 +3666,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2642,7 +3678,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2650,7 +3690,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2658,7 +3702,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2666,7 +3714,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2674,7 +3726,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2682,7 +3738,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2690,7 +3750,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2698,7 +3762,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2706,7 +3774,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2714,7 +3786,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2722,7 +3798,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2730,7 +3810,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2738,7 +3822,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2746,7 +3834,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2754,7 +3846,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2762,7 +3858,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2770,7 +3870,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2778,7 +3882,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2786,7 +3894,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2794,7 +3906,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2802,7 +3918,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2810,7 +3930,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2818,7 +3942,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2826,7 +3954,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2834,7 +3966,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2842,7 +3978,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2850,7 +3990,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2858,7 +4002,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2866,7 +4014,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2874,7 +4026,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2882,7 +4038,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2890,7 +4050,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2898,7 +4062,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2906,7 +4074,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2914,7 +4086,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2922,7 +4098,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2930,7 +4110,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2938,7 +4122,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2946,7 +4134,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2954,7 +4146,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2962,7 +4158,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2970,7 +4170,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2978,7 +4182,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2986,7 +4194,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2994,7 +4206,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3002,7 +4218,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3010,7 +4230,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3018,7 +4242,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3026,7 +4254,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3034,7 +4266,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3042,7 +4278,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3050,7 +4290,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3058,7 +4302,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3066,7 +4314,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3074,7 +4326,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3082,7 +4338,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3121,7 +4381,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3129,7 +4393,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3137,7 +4405,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3145,7 +4417,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3153,7 +4429,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3161,7 +4441,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3169,7 +4453,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3177,7 +4465,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3185,7 +4477,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3193,7 +4489,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3201,7 +4501,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3209,7 +4513,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3217,7 +4525,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3225,7 +4537,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3233,7 +4549,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3241,7 +4561,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3249,7 +4573,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3257,7 +4585,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3265,7 +4597,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3273,7 +4609,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3281,7 +4621,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3289,7 +4633,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3297,7 +4645,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3305,7 +4657,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3313,7 +4669,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3321,7 +4681,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3329,7 +4693,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3337,7 +4705,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3345,7 +4717,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3353,7 +4729,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3361,7 +4741,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3369,7 +4753,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3377,7 +4765,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3385,7 +4777,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3393,7 +4789,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3401,7 +4801,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3409,7 +4813,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3417,7 +4825,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3425,7 +4837,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3433,7 +4849,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3441,7 +4861,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3449,7 +4873,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3457,7 +4885,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3465,7 +4897,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3473,7 +4909,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3481,7 +4921,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3489,7 +4933,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3497,7 +4945,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3505,7 +4957,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3513,7 +4969,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3521,7 +4981,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3529,7 +4993,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3537,7 +5005,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3545,7 +5017,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3553,7 +5029,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3561,7 +5041,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3569,7 +5053,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3577,7 +5065,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3585,7 +5077,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3593,7 +5089,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3601,7 +5101,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3609,7 +5113,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3617,7 +5125,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3656,7 +5168,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3664,7 +5180,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3672,7 +5192,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3680,7 +5204,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3688,7 +5216,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3696,7 +5228,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3704,7 +5240,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3712,7 +5252,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3720,7 +5264,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3728,7 +5276,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3736,7 +5288,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3744,7 +5300,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3752,7 +5312,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3760,7 +5324,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3768,7 +5336,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3776,7 +5348,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3784,7 +5360,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3792,7 +5372,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3800,7 +5384,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3808,7 +5396,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3816,7 +5408,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3824,7 +5420,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3832,7 +5432,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3840,7 +5444,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3848,7 +5456,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3856,7 +5468,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3864,7 +5480,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3872,7 +5492,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3880,7 +5504,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3888,7 +5516,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3896,7 +5528,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3904,7 +5540,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3912,7 +5552,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3920,7 +5564,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3928,7 +5576,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3936,7 +5588,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3944,7 +5600,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3952,7 +5612,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3960,7 +5624,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3968,7 +5636,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3976,7 +5648,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3984,7 +5660,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3992,7 +5672,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4000,7 +5684,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4008,7 +5696,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4016,7 +5708,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4024,7 +5720,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4032,7 +5732,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4040,7 +5744,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4048,7 +5756,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4056,7 +5768,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4064,7 +5780,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4072,7 +5792,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4080,7 +5804,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4088,7 +5816,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4096,7 +5828,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4104,7 +5840,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4112,7 +5852,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4120,7 +5864,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4128,7 +5876,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4136,7 +5888,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4144,7 +5900,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4152,7 +5912,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4191,7 +5955,11 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4199,7 +5967,11 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4207,7 +5979,11 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4215,7 +5991,11 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4223,7 +6003,11 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4231,7 +6015,11 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4239,7 +6027,11 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4247,7 +6039,11 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4255,7 +6051,11 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4263,7 +6063,11 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4271,7 +6075,11 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4279,7 +6087,11 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4287,7 +6099,11 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4295,7 +6111,11 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4303,7 +6123,11 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4311,7 +6135,11 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4319,7 +6147,11 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4327,7 +6159,11 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4335,7 +6171,11 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4343,7 +6183,11 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4351,7 +6195,11 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4359,7 +6207,11 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4367,7 +6219,11 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4375,7 +6231,11 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4383,7 +6243,11 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4391,7 +6255,11 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4399,7 +6267,11 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4407,7 +6279,11 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4415,7 +6291,11 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4423,7 +6303,11 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4431,7 +6315,11 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4439,7 +6327,11 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4447,7 +6339,11 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4455,7 +6351,11 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4463,7 +6363,11 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4471,7 +6375,11 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4479,7 +6387,11 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4487,7 +6399,11 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4495,7 +6411,11 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4503,7 +6423,11 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4511,7 +6435,11 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4519,7 +6447,11 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4527,7 +6459,11 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4535,7 +6471,11 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4543,7 +6483,11 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4551,7 +6495,11 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4559,7 +6507,11 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4567,7 +6519,11 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4575,7 +6531,11 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4583,7 +6543,11 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4591,7 +6555,11 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4599,7 +6567,11 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4607,7 +6579,11 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4615,7 +6591,11 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4623,7 +6603,11 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4631,7 +6615,11 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4639,7 +6627,11 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4647,7 +6639,11 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4655,7 +6651,11 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4663,7 +6663,11 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4671,7 +6675,11 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4679,7 +6687,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4687,7 +6699,11 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
@@ -446,10 +446,8 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +456,8 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +466,8 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +476,8 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +486,8 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +496,8 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -518,10 +506,8 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -530,10 +516,8 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +526,8 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +536,8 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -566,10 +546,8 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -578,10 +556,8 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -590,10 +566,8 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +576,8 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -614,10 +586,8 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -626,10 +596,8 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -638,10 +606,8 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -650,10 +616,8 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -662,10 +626,8 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -674,10 +636,8 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B21" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -686,10 +646,8 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -698,10 +656,8 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -710,10 +666,8 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -722,10 +676,8 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -734,10 +686,8 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -746,10 +696,8 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -758,10 +706,8 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -770,10 +716,8 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -782,10 +726,8 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -794,10 +736,8 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B31" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -806,10 +746,8 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -818,10 +756,8 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -830,10 +766,8 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -842,10 +776,8 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -854,10 +786,8 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -866,10 +796,8 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -878,10 +806,8 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -890,10 +816,8 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -902,10 +826,8 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -914,10 +836,8 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -926,10 +846,8 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -938,10 +856,8 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -950,10 +866,8 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -962,10 +876,8 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -974,10 +886,8 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -986,10 +896,8 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -998,10 +906,8 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1010,10 +916,8 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -1022,10 +926,8 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1034,10 +936,8 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1046,10 +946,8 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1058,10 +956,8 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1070,10 +966,8 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1082,10 +976,8 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -1094,10 +986,8 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1106,10 +996,8 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B57" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1118,10 +1006,8 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1130,10 +1016,8 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1142,10 +1026,8 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1154,10 +1036,8 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B61" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -1166,10 +1046,8 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B62" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -1178,10 +1056,8 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1190,10 +1066,8 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B64" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1233,10 +1107,8 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1245,10 +1117,8 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -1257,10 +1127,8 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -1269,10 +1137,8 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -1281,10 +1147,8 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1293,10 +1157,8 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B7" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1305,10 +1167,8 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B8" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1317,10 +1177,8 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1329,10 +1187,8 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -1341,10 +1197,8 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -1353,10 +1207,8 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B12" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -1365,10 +1217,8 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B13" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1377,10 +1227,8 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B14" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -1389,10 +1237,8 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B15" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -1401,10 +1247,8 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1413,10 +1257,8 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B17" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1425,10 +1267,8 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B18" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1437,10 +1277,8 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B19" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -1449,10 +1287,8 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B20" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1461,10 +1297,8 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B21" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1473,10 +1307,8 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B22" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -1485,10 +1317,8 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B23" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1497,10 +1327,8 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B24" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -1509,10 +1337,8 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B25" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1521,10 +1347,8 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B26" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1533,10 +1357,8 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B27" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1545,10 +1367,8 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -1557,10 +1377,8 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B29" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1569,10 +1387,8 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -1581,10 +1397,8 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B31" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -1593,10 +1407,8 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B32" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -1605,10 +1417,8 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B33" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -1617,10 +1427,8 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -1629,10 +1437,8 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B35" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -1641,10 +1447,8 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1653,10 +1457,8 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B37" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -1665,10 +1467,8 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B38" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="39">
@@ -1677,10 +1477,8 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B39" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -1689,10 +1487,8 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B40" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -1701,10 +1497,8 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B41" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1713,10 +1507,8 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B42" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -1725,10 +1517,8 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B43" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="44">
@@ -1737,10 +1527,8 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B44" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -1749,10 +1537,8 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B45" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -1761,10 +1547,8 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B46" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="47">
@@ -1773,10 +1557,8 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B47" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -1785,10 +1567,8 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49">
@@ -1797,10 +1577,8 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B49" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1809,10 +1587,8 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B50" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -1821,10 +1597,8 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -1833,10 +1607,8 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B52" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -1845,10 +1617,8 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54">
@@ -1857,10 +1627,8 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B54" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="55">
@@ -1869,10 +1637,8 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B55" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -1881,10 +1647,8 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B56" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="57">
@@ -1893,10 +1657,8 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B57" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="58">
@@ -1905,10 +1667,8 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B58" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="59">
@@ -1917,10 +1677,8 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B59" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="60">
@@ -1929,10 +1687,8 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B60" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="61">
@@ -1941,10 +1697,8 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B61" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -1953,10 +1707,8 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63">
@@ -1965,10 +1717,8 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64">
@@ -1977,10 +1727,8 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B64" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2020,10 +1768,8 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B2" t="n">
+        <v>44.25</v>
       </c>
     </row>
     <row r="3">
@@ -2032,10 +1778,8 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -2044,10 +1788,8 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B4" t="n">
+        <v>17.25</v>
       </c>
     </row>
     <row r="5">
@@ -2056,10 +1798,8 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B5" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -2068,10 +1808,8 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B6" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -2080,10 +1818,8 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B7" t="n">
+        <v>45.75</v>
       </c>
     </row>
     <row r="8">
@@ -2092,10 +1828,8 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B8" t="n">
+        <v>49.5</v>
       </c>
     </row>
     <row r="9">
@@ -2104,10 +1838,8 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B9" t="n">
+        <v>27.75</v>
       </c>
     </row>
     <row r="10">
@@ -2116,10 +1848,8 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B10" t="n">
+        <v>23.25</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +1858,8 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B11" t="n">
+        <v>54.75</v>
       </c>
     </row>
     <row r="12">
@@ -2140,10 +1868,8 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B12" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +1878,8 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B13" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +1888,8 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B14" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -2176,10 +1898,8 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B15" t="n">
+        <v>28.5</v>
       </c>
     </row>
     <row r="16">
@@ -2188,10 +1908,8 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B16" t="n">
+        <v>35.25</v>
       </c>
     </row>
     <row r="17">
@@ -2200,10 +1918,8 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B17" t="n">
+        <v>14.25</v>
       </c>
     </row>
     <row r="18">
@@ -2212,10 +1928,8 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B18" t="n">
+        <v>26.25</v>
       </c>
     </row>
     <row r="19">
@@ -2224,10 +1938,8 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B19" t="n">
+        <v>48.75</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +1948,8 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B20" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -2248,10 +1958,8 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B21" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -2260,10 +1968,8 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B22" t="n">
+        <v>47.25</v>
       </c>
     </row>
     <row r="23">
@@ -2272,10 +1978,8 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B23" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -2284,10 +1988,8 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B24" t="n">
+        <v>30.75</v>
       </c>
     </row>
     <row r="25">
@@ -2296,10 +1998,8 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B25" t="n">
+        <v>47.25</v>
       </c>
     </row>
     <row r="26">
@@ -2308,10 +2008,8 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B26" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -2320,10 +2018,8 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B27" t="n">
+        <v>47.25</v>
       </c>
     </row>
     <row r="28">
@@ -2332,10 +2028,8 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -2344,10 +2038,8 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B29" t="n">
+        <v>24.75</v>
       </c>
     </row>
     <row r="30">
@@ -2356,10 +2048,8 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B30" t="n">
+        <v>30.75</v>
       </c>
     </row>
     <row r="31">
@@ -2368,10 +2058,8 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B31" t="n">
+        <v>39.75</v>
       </c>
     </row>
     <row r="32">
@@ -2380,10 +2068,8 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B32" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
@@ -2392,10 +2078,8 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B33" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="34">
@@ -2404,10 +2088,8 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B34" t="n">
+        <v>46.5</v>
       </c>
     </row>
     <row r="35">
@@ -2416,10 +2098,8 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B35" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="36">
@@ -2428,10 +2108,8 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B36" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="37">
@@ -2440,10 +2118,8 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B37" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="38">
@@ -2452,10 +2128,8 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B38" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="39">
@@ -2464,10 +2138,8 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B39" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -2476,10 +2148,8 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B40" t="n">
+        <v>63.75</v>
       </c>
     </row>
     <row r="41">
@@ -2488,10 +2158,8 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B41" t="n">
+        <v>51.75</v>
       </c>
     </row>
     <row r="42">
@@ -2500,10 +2168,8 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B42" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="43">
@@ -2512,10 +2178,8 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B43" t="n">
+        <v>23.25</v>
       </c>
     </row>
     <row r="44">
@@ -2524,10 +2188,8 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B44" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="45">
@@ -2536,10 +2198,8 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B45" t="n">
+        <v>45.75</v>
       </c>
     </row>
     <row r="46">
@@ -2548,10 +2208,8 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B46" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="47">
@@ -2560,10 +2218,8 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B47" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="48">
@@ -2572,10 +2228,8 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B48" t="n">
+        <v>36.75</v>
       </c>
     </row>
     <row r="49">
@@ -2584,10 +2238,8 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B49" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="50">
@@ -2596,10 +2248,8 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B50" t="n">
+        <v>39.75</v>
       </c>
     </row>
     <row r="51">
@@ -2608,10 +2258,8 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B51" t="n">
+        <v>42.75</v>
       </c>
     </row>
     <row r="52">
@@ -2620,10 +2268,8 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53">
@@ -2632,10 +2278,8 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B53" t="n">
+        <v>47.25</v>
       </c>
     </row>
     <row r="54">
@@ -2644,10 +2288,8 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B54" t="n">
+        <v>24.75</v>
       </c>
     </row>
     <row r="55">
@@ -2656,10 +2298,8 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B55" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="56">
@@ -2668,10 +2308,8 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B56" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -2680,10 +2318,8 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B57" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
@@ -2692,10 +2328,8 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B58" t="n">
+        <v>50.25</v>
       </c>
     </row>
     <row r="59">
@@ -2704,10 +2338,8 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B59" t="n">
+        <v>26.25</v>
       </c>
     </row>
     <row r="60">
@@ -2716,10 +2348,8 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B60" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="61">
@@ -2728,10 +2358,8 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B61" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="62">
@@ -2740,10 +2368,8 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B62" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="63">
@@ -2752,10 +2378,8 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B63" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="64">
@@ -2764,10 +2388,8 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B64" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2807,10 +2429,8 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B2" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="3">
@@ -2819,10 +2439,8 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B3" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -2831,10 +2449,8 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -2843,10 +2459,8 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B5" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -2855,10 +2469,8 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B6" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
@@ -2867,10 +2479,8 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B7" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="8">
@@ -2879,10 +2489,8 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -2891,10 +2499,8 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B9" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="10">
@@ -2903,10 +2509,8 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B10" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -2915,10 +2519,8 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B11" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="12">
@@ -2927,10 +2529,8 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B12" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="13">
@@ -2939,10 +2539,8 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B13" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="14">
@@ -2951,10 +2549,8 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B14" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="15">
@@ -2963,10 +2559,8 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2975,10 +2569,8 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B16" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2987,10 +2579,8 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2999,10 +2589,8 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B18" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="19">
@@ -3011,10 +2599,8 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -3023,10 +2609,8 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B20" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="21">
@@ -3035,10 +2619,8 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B21" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="22">
@@ -3047,10 +2629,8 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B22" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="23">
@@ -3059,10 +2639,8 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B23" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="24">
@@ -3071,10 +2649,8 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -3083,10 +2659,8 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B25" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="26">
@@ -3095,10 +2669,8 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B26" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -3107,10 +2679,8 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B27" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="28">
@@ -3119,10 +2689,8 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B28" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="29">
@@ -3131,10 +2699,8 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B29" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="30">
@@ -3143,10 +2709,8 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B30" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -3155,10 +2719,8 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B31" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -3167,10 +2729,8 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B32" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="33">
@@ -3179,10 +2739,8 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B33" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="34">
@@ -3191,10 +2749,8 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3203,10 +2759,8 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B35" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -3215,10 +2769,8 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B36" t="n">
+        <v>32.5</v>
       </c>
     </row>
     <row r="37">
@@ -3227,10 +2779,8 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B37" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="38">
@@ -3239,10 +2789,8 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B38" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="39">
@@ -3251,10 +2799,8 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B39" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="40">
@@ -3263,10 +2809,8 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B40" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="41">
@@ -3275,10 +2819,8 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B41" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3287,10 +2829,8 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B42" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -3299,10 +2839,8 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -3311,10 +2849,8 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B44" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="45">
@@ -3323,10 +2859,8 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -3335,10 +2869,8 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B46" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="47">
@@ -3347,10 +2879,8 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B47" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -3359,10 +2889,8 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B48" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -3371,10 +2899,8 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B49" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="50">
@@ -3383,10 +2909,8 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -3395,10 +2919,8 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B51" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -3407,10 +2929,8 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B52" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="53">
@@ -3419,10 +2939,8 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B53" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="54">
@@ -3431,10 +2949,8 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3443,10 +2959,8 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B55" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="56">
@@ -3455,10 +2969,8 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3467,10 +2979,8 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B57" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="58">
@@ -3479,10 +2989,8 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B58" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3491,10 +2999,8 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B59" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -3503,10 +3009,8 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B60" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -3515,10 +3019,8 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B61" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="62">
@@ -3527,10 +3029,8 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3539,10 +3039,8 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B63" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3551,10 +3049,8 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B64" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3594,10 +3090,8 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
@@ -3606,10 +3100,8 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -3618,10 +3110,8 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
@@ -3630,10 +3120,8 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B5" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="6">
@@ -3642,10 +3130,8 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3654,10 +3140,8 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B7" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="8">
@@ -3666,10 +3150,8 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B8" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -3678,10 +3160,8 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B9" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="10">
@@ -3690,10 +3170,8 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -3702,10 +3180,8 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B11" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
@@ -3714,10 +3190,8 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="13">
@@ -3726,10 +3200,8 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B13" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="14">
@@ -3738,10 +3210,8 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B14" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="15">
@@ -3750,10 +3220,8 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B15" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="16">
@@ -3762,10 +3230,8 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -3774,10 +3240,8 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B17" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="18">
@@ -3786,10 +3250,8 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
@@ -3798,10 +3260,8 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B19" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="20">
@@ -3810,10 +3270,8 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B20" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="21">
@@ -3822,10 +3280,8 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3834,10 +3290,8 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="23">
@@ -3846,10 +3300,8 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3858,10 +3310,8 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B24" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="25">
@@ -3870,10 +3320,8 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B25" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="26">
@@ -3882,10 +3330,8 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B26" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="27">
@@ -3894,10 +3340,8 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -3906,10 +3350,8 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3918,10 +3360,8 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B29" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="30">
@@ -3930,10 +3370,8 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B30" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="31">
@@ -3942,10 +3380,8 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B31" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="32">
@@ -3954,10 +3390,8 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -3966,10 +3400,8 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B33" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="34">
@@ -3978,10 +3410,8 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B34" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="35">
@@ -3990,10 +3420,8 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B35" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="36">
@@ -4002,10 +3430,8 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -4014,10 +3440,8 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4026,10 +3450,8 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B38" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="39">
@@ -4038,10 +3460,8 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B39" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="40">
@@ -4050,10 +3470,8 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B40" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="41">
@@ -4062,10 +3480,8 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B41" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="42">
@@ -4074,10 +3490,8 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B42" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="43">
@@ -4086,10 +3500,8 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B43" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="44">
@@ -4098,10 +3510,8 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B44" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="45">
@@ -4110,10 +3520,8 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4122,10 +3530,8 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4134,10 +3540,8 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B47" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="48">
@@ -4146,10 +3550,8 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4158,10 +3560,8 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B49" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="50">
@@ -4170,10 +3570,8 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B50" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="51">
@@ -4182,10 +3580,8 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B51" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="52">
@@ -4194,10 +3590,8 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B52" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="53">
@@ -4206,10 +3600,8 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B53" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="54">
@@ -4218,10 +3610,8 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4230,10 +3620,8 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B55" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="56">
@@ -4242,10 +3630,8 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B56" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="57">
@@ -4254,10 +3640,8 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B57" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="58">
@@ -4266,10 +3650,8 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -4278,10 +3660,8 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B59" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="60">
@@ -4290,10 +3670,8 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B60" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="61">
@@ -4302,10 +3680,8 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B61" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="62">
@@ -4314,10 +3690,8 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B62" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="63">
@@ -4326,10 +3700,8 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B63" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -4338,10 +3710,8 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B64" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4381,10 +3751,8 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4393,10 +3761,8 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4405,10 +3771,8 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4417,10 +3781,8 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4429,10 +3791,8 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4441,10 +3801,8 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4453,10 +3811,8 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4465,10 +3821,8 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4477,10 +3831,8 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4489,10 +3841,8 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4501,10 +3851,8 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4513,10 +3861,8 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4525,10 +3871,8 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4537,10 +3881,8 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4549,10 +3891,8 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4561,10 +3901,8 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4573,10 +3911,8 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4585,10 +3921,8 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4597,10 +3931,8 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4609,10 +3941,8 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4621,10 +3951,8 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4633,10 +3961,8 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4645,10 +3971,8 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4657,10 +3981,8 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4669,10 +3991,8 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4681,10 +4001,8 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4693,10 +4011,8 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4705,10 +4021,8 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4717,10 +4031,8 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4729,10 +4041,8 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4741,10 +4051,8 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4753,10 +4061,8 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4765,10 +4071,8 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4777,10 +4081,8 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4789,10 +4091,8 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4801,10 +4101,8 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4813,10 +4111,8 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4825,10 +4121,8 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4837,10 +4131,8 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4849,10 +4141,8 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4861,10 +4151,8 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4873,10 +4161,8 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4885,10 +4171,8 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4897,10 +4181,8 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4909,10 +4191,8 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4921,10 +4201,8 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4933,10 +4211,8 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4945,10 +4221,8 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4957,10 +4231,8 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4969,10 +4241,8 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4981,10 +4251,8 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4993,10 +4261,8 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5005,10 +4271,8 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5017,10 +4281,8 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5029,10 +4291,8 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5041,10 +4301,8 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5053,10 +4311,8 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5065,10 +4321,8 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5077,10 +4331,8 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5089,10 +4341,8 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5101,10 +4351,8 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5113,10 +4361,8 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5125,10 +4371,8 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5168,10 +4412,8 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5180,10 +4422,8 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5192,10 +4432,8 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5204,10 +4442,8 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5216,10 +4452,8 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5228,10 +4462,8 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5240,10 +4472,8 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5252,10 +4482,8 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5264,10 +4492,8 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5276,10 +4502,8 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5288,10 +4512,8 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5300,10 +4522,8 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5312,10 +4532,8 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5324,10 +4542,8 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5336,10 +4552,8 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5348,10 +4562,8 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5360,10 +4572,8 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5372,10 +4582,8 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5384,10 +4592,8 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5396,10 +4602,8 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5408,10 +4612,8 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5420,10 +4622,8 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5432,10 +4632,8 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5444,10 +4642,8 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5456,10 +4652,8 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5468,10 +4662,8 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5480,10 +4672,8 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5492,10 +4682,8 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5504,10 +4692,8 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5516,10 +4702,8 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5528,10 +4712,8 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5540,10 +4722,8 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5552,10 +4732,8 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5564,10 +4742,8 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5576,10 +4752,8 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5588,10 +4762,8 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5600,10 +4772,8 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5612,10 +4782,8 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5624,10 +4792,8 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5636,10 +4802,8 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5648,10 +4812,8 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5660,10 +4822,8 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5672,10 +4832,8 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5684,10 +4842,8 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5696,10 +4852,8 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5708,10 +4862,8 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5720,10 +4872,8 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5732,10 +4882,8 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5744,10 +4892,8 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5756,10 +4902,8 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5768,10 +4912,8 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5780,10 +4922,8 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5792,10 +4932,8 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5804,10 +4942,8 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5816,10 +4952,8 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5828,10 +4962,8 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5840,10 +4972,8 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5852,10 +4982,8 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5864,10 +4992,8 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5876,10 +5002,8 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5888,10 +5012,8 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5900,10 +5022,8 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5912,10 +5032,8 @@
           <t>Cupra Born</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5955,11 +5073,6 @@
           <t>Honda HR-V</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5967,11 +5080,6 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5979,11 +5087,6 @@
           <t>DS 4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5991,11 +5094,6 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6003,11 +5101,6 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6015,11 +5108,6 @@
           <t>Kia EV6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6027,11 +5115,6 @@
           <t>VW Multivan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6039,11 +5122,6 @@
           <t>Peugeot 308</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6051,11 +5129,6 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6063,11 +5136,6 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6075,11 +5143,6 @@
           <t>Kia Niro</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6087,11 +5150,6 @@
           <t>Genesis GV60</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6099,11 +5157,6 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6111,11 +5164,6 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6123,11 +5171,6 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6135,11 +5178,6 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6147,11 +5185,6 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6159,11 +5192,6 @@
           <t>Lexus RX</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6171,11 +5199,6 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6183,11 +5206,6 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6195,11 +5213,6 @@
           <t>Ford Ranger</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6207,11 +5220,6 @@
           <t>Lucid Air</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6219,11 +5227,6 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6231,11 +5234,6 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6243,11 +5241,6 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6255,11 +5248,6 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6267,11 +5255,6 @@
           <t>Ford Puma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6279,11 +5262,6 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6291,11 +5269,6 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6303,11 +5276,6 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6315,11 +5283,6 @@
           <t>Lexus NX</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6327,11 +5290,6 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6339,11 +5297,6 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6351,11 +5304,6 @@
           <t>smart #1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6363,11 +5311,6 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6375,11 +5318,6 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6387,11 +5325,6 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6399,11 +5332,6 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6411,11 +5339,6 @@
           <t>NIO ET7</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6423,11 +5346,6 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6435,11 +5353,6 @@
           <t>Renault Austral</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6447,11 +5360,6 @@
           <t>DS 9</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6459,11 +5367,6 @@
           <t>Tesla Model S</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6471,11 +5374,6 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6483,11 +5381,6 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6495,11 +5388,6 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6507,11 +5395,6 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6519,11 +5402,6 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6531,11 +5409,6 @@
           <t>BMW X1</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6543,11 +5416,6 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6555,11 +5423,6 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6567,11 +5430,6 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6579,11 +5437,6 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6591,11 +5444,6 @@
           <t>SEAT Arona</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6603,11 +5451,6 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6615,11 +5458,6 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6627,11 +5465,6 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6639,11 +5472,6 @@
           <t>Kia Sportage</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6651,11 +5479,6 @@
           <t>BMW i4</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6663,11 +5486,6 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6675,11 +5493,6 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6687,21 +5500,11 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
           <t>Cupra Born</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Blue</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2022 Datasheets & Spreadsheets_combined.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3.896103896103896</v>
       </c>
     </row>
     <row r="4">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>6.179775280898876</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>9.523809523809524</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>28.23529411764706</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22</v>
+        <v>13.25301204819277</v>
       </c>
     </row>
     <row r="19">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1.19047619047619</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>11.62790697674419</v>
       </c>
     </row>
     <row r="22">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>3.645833333333334</v>
       </c>
     </row>
     <row r="24">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>4.320987654320986</v>
       </c>
     </row>
     <row r="29">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>5.357142857142857</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>10.12658227848101</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>4.605263157894737</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="36">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>4.49438202247191</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="50">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>5.294117647058822</v>
       </c>
     </row>
     <row r="52">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="56">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>5.357142857142857</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>18</v>
+        <v>10.3448275862069</v>
       </c>
     </row>
     <row r="62">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>18</v>
+        <v>11.84210526315789</v>
       </c>
     </row>
     <row r="63">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20</v>
+        <v>12.34567901234568</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>39.75903614457831</v>
       </c>
     </row>
     <row r="3">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>27.92207792207792</v>
       </c>
     </row>
     <row r="4">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>58.33333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>35.88235294117647</v>
       </c>
     </row>
     <row r="6">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119</v>
+        <v>70.83333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>9.890109890109891</v>
       </c>
     </row>
     <row r="8">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>17.97752808988764</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>18.29268292682927</v>
       </c>
     </row>
     <row r="10">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>22.02380952380952</v>
       </c>
     </row>
     <row r="11">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>21.02272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="13">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>17.58241758241758</v>
       </c>
     </row>
     <row r="14">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>32.97872340425532</v>
       </c>
     </row>
     <row r="15">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85</v>
+        <v>50.59523809523809</v>
       </c>
     </row>
     <row r="16">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>28.48837209302326</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>12.94117647058824</v>
       </c>
     </row>
     <row r="18">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71</v>
+        <v>42.7710843373494</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>37.91208791208791</v>
       </c>
     </row>
     <row r="20">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>22.61904761904762</v>
       </c>
     </row>
     <row r="21">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>15.11627906976744</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57</v>
+        <v>35.18518518518519</v>
       </c>
     </row>
     <row r="23">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52</v>
+        <v>27.08333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62</v>
+        <v>37.80487804878049</v>
       </c>
     </row>
     <row r="25">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57</v>
+        <v>35.18518518518519</v>
       </c>
     </row>
     <row r="26">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>22.77777777777778</v>
       </c>
     </row>
     <row r="27">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>14.36781609195402</v>
       </c>
     </row>
     <row r="28">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
+        <v>17.90123456790123</v>
       </c>
     </row>
     <row r="29">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104</v>
+        <v>61.1764705882353</v>
       </c>
     </row>
     <row r="30">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35</v>
+        <v>20.83333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34</v>
+        <v>21.51898734177215</v>
       </c>
     </row>
     <row r="32">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61</v>
+        <v>35.88235294117647</v>
       </c>
     </row>
     <row r="33">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35</v>
+        <v>23.02631578947368</v>
       </c>
     </row>
     <row r="34">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="35">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>38</v>
+        <v>22.61904761904762</v>
       </c>
     </row>
     <row r="36">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>3.370786516853932</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77</v>
+        <v>45.83333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57</v>
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>14.19753086419753</v>
       </c>
     </row>
     <row r="40">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41</v>
+        <v>22.52747252747253</v>
       </c>
     </row>
     <row r="41">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32</v>
+        <v>19.04761904761905</v>
       </c>
     </row>
     <row r="43">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88</v>
+        <v>51.76470588235295</v>
       </c>
     </row>
     <row r="44">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>69</v>
+        <v>35.56701030927835</v>
       </c>
     </row>
     <row r="45">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71</v>
+        <v>41.76470588235294</v>
       </c>
     </row>
     <row r="46">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56</v>
+        <v>32.94117647058823</v>
       </c>
     </row>
     <row r="47">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
+        <v>27.22222222222222</v>
       </c>
     </row>
     <row r="48">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>61</v>
+        <v>35.05747126436782</v>
       </c>
     </row>
     <row r="49">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>26</v>
+        <v>16.04938271604938</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>77</v>
+        <v>47.53086419753086</v>
       </c>
     </row>
     <row r="51">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>24</v>
+        <v>14.11764705882353</v>
       </c>
     </row>
     <row r="52">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>81</v>
+        <v>44.02173913043478</v>
       </c>
     </row>
     <row r="53">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>37</v>
+        <v>21.51162790697674</v>
       </c>
     </row>
     <row r="54">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>38</v>
+        <v>23.45679012345679</v>
       </c>
     </row>
     <row r="56">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>101</v>
+        <v>61.58536585365854</v>
       </c>
     </row>
     <row r="57">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>66</v>
+        <v>39.28571428571428</v>
       </c>
     </row>
     <row r="58">
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>43</v>
+        <v>26.875</v>
       </c>
     </row>
     <row r="59">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>118</v>
+        <v>64.83516483516483</v>
       </c>
     </row>
     <row r="61">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>9.770114942528735</v>
       </c>
     </row>
     <row r="62">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>45</v>
+        <v>29.60526315789473</v>
       </c>
     </row>
     <row r="63">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>37</v>
+        <v>22.02380952380952</v>
       </c>
     </row>
     <row r="64">
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32</v>
+        <v>19.75308641975309</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.25</v>
+        <v>35.54216867469879</v>
       </c>
     </row>
     <row r="3">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>25.97402597402597</v>
       </c>
     </row>
     <row r="4">
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.25</v>
+        <v>13.69047619047619</v>
       </c>
     </row>
     <row r="5">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>21.17647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.5</v>
+        <v>13.0952380952381</v>
       </c>
     </row>
     <row r="7">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.75</v>
+        <v>33.51648351648351</v>
       </c>
     </row>
     <row r="8">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.5</v>
+        <v>37.07865168539326</v>
       </c>
     </row>
     <row r="9">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.75</v>
+        <v>22.5609756097561</v>
       </c>
     </row>
     <row r="10">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.25</v>
+        <v>18.45238095238095</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.75</v>
+        <v>41.47727272727273</v>
       </c>
     </row>
     <row r="12">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45</v>
+        <v>32.96703296703297</v>
       </c>
     </row>
     <row r="14">
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>36.17021276595745</v>
       </c>
     </row>
     <row r="15">
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.5</v>
+        <v>22.61904761904762</v>
       </c>
     </row>
     <row r="16">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.25</v>
+        <v>27.32558139534884</v>
       </c>
     </row>
     <row r="17">
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.25</v>
+        <v>11.17647058823529</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.25</v>
+        <v>21.08433734939759</v>
       </c>
     </row>
     <row r="19">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.75</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="20">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51</v>
+        <v>40.47619047619048</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>27.90697674418605</v>
       </c>
     </row>
     <row r="22">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.25</v>
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="23">
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.25</v>
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="26">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>51.11111111111111</v>
       </c>
     </row>
     <row r="27">
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.25</v>
+        <v>36.20689655172414</v>
       </c>
     </row>
     <row r="28">
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>24.69135802469136</v>
       </c>
     </row>
     <row r="29">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.75</v>
+        <v>19.41176470588235</v>
       </c>
     </row>
     <row r="30">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.75</v>
+        <v>24.4047619047619</v>
       </c>
     </row>
     <row r="31">
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.75</v>
+        <v>33.54430379746836</v>
       </c>
     </row>
     <row r="32">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>39</v>
+        <v>30.58823529411765</v>
       </c>
     </row>
     <row r="33">
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.5</v>
+        <v>32.89473684210527</v>
       </c>
     </row>
     <row r="34">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.5</v>
+        <v>36.47058823529412</v>
       </c>
     </row>
     <row r="35">
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.5</v>
+        <v>34.52380952380952</v>
       </c>
     </row>
     <row r="36">
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.75</v>
+        <v>14.04494382022472</v>
       </c>
     </row>
     <row r="37">
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.5</v>
+        <v>34.52380952380952</v>
       </c>
     </row>
     <row r="38">
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.25</v>
+        <v>23.88888888888889</v>
       </c>
     </row>
     <row r="39">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>63</v>
+        <v>51.85185185185185</v>
       </c>
     </row>
     <row r="40">
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.75</v>
+        <v>46.7032967032967</v>
       </c>
     </row>
     <row r="41">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.75</v>
+        <v>38.33333333333334</v>
       </c>
     </row>
     <row r="42">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.25</v>
+        <v>25.59523809523809</v>
       </c>
     </row>
     <row r="43">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.25</v>
+        <v>18.23529411764706</v>
       </c>
     </row>
     <row r="44">
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60</v>
+        <v>41.23711340206185</v>
       </c>
     </row>
     <row r="45">
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>45.75</v>
+        <v>35.88235294117647</v>
       </c>
     </row>
     <row r="46">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.5</v>
+        <v>34.11764705882353</v>
       </c>
     </row>
     <row r="47">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>43.5</v>
+        <v>32.22222222222222</v>
       </c>
     </row>
     <row r="48">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>36.75</v>
+        <v>28.16091954022988</v>
       </c>
     </row>
     <row r="49">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>32.25</v>
+        <v>26.54320987654321</v>
       </c>
     </row>
     <row r="50">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>39.75</v>
+        <v>32.71604938271605</v>
       </c>
     </row>
     <row r="51">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>42.75</v>
+        <v>33.52941176470588</v>
       </c>
     </row>
     <row r="52">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>42</v>
+        <v>30.43478260869565</v>
       </c>
     </row>
     <row r="53">
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>47.25</v>
+        <v>36.62790697674418</v>
       </c>
     </row>
     <row r="54">
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>24.75</v>
+        <v>19.41176470588235</v>
       </c>
     </row>
     <row r="55">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>34.5</v>
+        <v>28.39506172839506</v>
       </c>
     </row>
     <row r="56">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>30</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="57">
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="58">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50.25</v>
+        <v>41.875</v>
       </c>
     </row>
     <row r="59">
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>26.25</v>
+        <v>20.58823529411765</v>
       </c>
     </row>
     <row r="60">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>32.25</v>
+        <v>23.62637362637363</v>
       </c>
     </row>
     <row r="61">
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>45</v>
+        <v>34.48275862068966</v>
       </c>
     </row>
     <row r="62">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>39</v>
+        <v>34.21052631578947</v>
       </c>
     </row>
     <row r="63">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>37.5</v>
+        <v>29.76190476190476</v>
       </c>
     </row>
     <row r="64">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
+        <v>27.16049382716049</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.5</v>
+        <v>11.44578313253012</v>
       </c>
     </row>
     <row r="3">
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.5</v>
+        <v>17.53246753246753</v>
       </c>
     </row>
     <row r="4">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.5</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>21.17647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>7.738095238095238</v>
       </c>
     </row>
     <row r="7">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.5</v>
+        <v>23.62637362637363</v>
       </c>
     </row>
     <row r="8">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>12.35955056179775</v>
       </c>
     </row>
     <row r="9">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.5</v>
+        <v>14.02439024390244</v>
       </c>
     </row>
     <row r="10">
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>22.61904761904762</v>
       </c>
     </row>
     <row r="11">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="12">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.5</v>
+        <v>20.83333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.5</v>
+        <v>20.32967032967033</v>
       </c>
     </row>
     <row r="14">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>6.914893617021277</v>
       </c>
     </row>
     <row r="15">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>11.9047619047619</v>
       </c>
     </row>
     <row r="16">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.5</v>
+        <v>20.34883720930233</v>
       </c>
     </row>
     <row r="17">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>18.82352941176471</v>
       </c>
     </row>
     <row r="18">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.5</v>
+        <v>11.44578313253012</v>
       </c>
     </row>
     <row r="19">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>12.08791208791209</v>
       </c>
     </row>
     <row r="20">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.5</v>
+        <v>23.21428571428572</v>
       </c>
     </row>
     <row r="21">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.5</v>
+        <v>26.16279069767442</v>
       </c>
     </row>
     <row r="22">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.5</v>
+        <v>10.49382716049383</v>
       </c>
     </row>
     <row r="23">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.5</v>
+        <v>13.02083333333333</v>
       </c>
     </row>
     <row r="24">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>17.07317073170732</v>
       </c>
     </row>
     <row r="25">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.5</v>
+        <v>10.49382716049383</v>
       </c>
     </row>
     <row r="26">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>15.55555555555556</v>
       </c>
     </row>
     <row r="27">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.5</v>
+        <v>17.81609195402299</v>
       </c>
     </row>
     <row r="28">
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.5</v>
+        <v>21.60493827160494</v>
       </c>
     </row>
     <row r="29">
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.5</v>
+        <v>11.17647058823529</v>
       </c>
     </row>
     <row r="30">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="31">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>15.18987341772152</v>
       </c>
     </row>
     <row r="32">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.5</v>
+        <v>18.23529411764706</v>
       </c>
     </row>
     <row r="33">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.5</v>
+        <v>19.07894736842105</v>
       </c>
     </row>
     <row r="34">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10</v>
+        <v>11.76470588235294</v>
       </c>
     </row>
     <row r="35">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>19.04761904761905</v>
       </c>
     </row>
     <row r="36">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.5</v>
+        <v>36.51685393258427</v>
       </c>
     </row>
     <row r="37">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.5</v>
+        <v>11.30952380952381</v>
       </c>
     </row>
     <row r="38">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20.5</v>
+        <v>22.77777777777778</v>
       </c>
     </row>
     <row r="39">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.5</v>
+        <v>22.8395061728395</v>
       </c>
     </row>
     <row r="40">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.5</v>
+        <v>12.63736263736264</v>
       </c>
     </row>
     <row r="41">
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16</v>
+        <v>17.77777777777778</v>
       </c>
     </row>
     <row r="42">
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26</v>
+        <v>30.95238095238095</v>
       </c>
     </row>
     <row r="43">
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>7.058823529411764</v>
       </c>
     </row>
     <row r="44">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.5</v>
+        <v>5.670103092783505</v>
       </c>
     </row>
     <row r="45">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>7.058823529411764</v>
       </c>
     </row>
     <row r="46">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.5</v>
+        <v>12.35294117647059</v>
       </c>
     </row>
     <row r="47">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>23.33333333333333</v>
       </c>
     </row>
     <row r="48">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>22.98850574712644</v>
       </c>
     </row>
     <row r="49">
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>19.5</v>
+        <v>24.07407407407407</v>
       </c>
     </row>
     <row r="50">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>4.938271604938271</v>
       </c>
     </row>
     <row r="51">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>15.29411764705882</v>
       </c>
     </row>
     <row r="52">
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8.5</v>
+        <v>9.239130434782608</v>
       </c>
     </row>
     <row r="53">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15.5</v>
+        <v>18.02325581395349</v>
       </c>
     </row>
     <row r="54">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>1.176470588235294</v>
       </c>
     </row>
     <row r="55">
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16.5</v>
+        <v>20.37037037037037</v>
       </c>
     </row>
     <row r="56">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>7.317073170731707</v>
       </c>
     </row>
     <row r="57">
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6.5</v>
+        <v>7.738095238095238</v>
       </c>
     </row>
     <row r="58">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="59">
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="61">
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>21.5</v>
+        <v>24.71264367816092</v>
       </c>
     </row>
     <row r="62">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="63">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15</v>
+        <v>18.51851851851852</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.25</v>
+        <v>7.83132530120482</v>
       </c>
     </row>
     <row r="3">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>3.896103896103896</v>
       </c>
     </row>
     <row r="4">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.25</v>
+        <v>2.976190476190476</v>
       </c>
     </row>
     <row r="5">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.25</v>
+        <v>12.35294117647059</v>
       </c>
     </row>
     <row r="6">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4.761904761904763</v>
       </c>
     </row>
     <row r="7">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.25</v>
+        <v>9.340659340659341</v>
       </c>
     </row>
     <row r="8">
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.5</v>
+        <v>7.865168539325842</v>
       </c>
     </row>
     <row r="9">
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.75</v>
+        <v>11.58536585365854</v>
       </c>
     </row>
     <row r="10">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4.761904761904763</v>
       </c>
     </row>
     <row r="11">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.5</v>
+        <v>7.954545454545454</v>
       </c>
     </row>
     <row r="12">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.75</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.25</v>
+        <v>11.53846153846154</v>
       </c>
     </row>
     <row r="14">
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.25</v>
+        <v>4.787234042553191</v>
       </c>
     </row>
     <row r="15">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.25</v>
+        <v>7.738095238095238</v>
       </c>
     </row>
     <row r="16">
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>9.302325581395349</v>
       </c>
     </row>
     <row r="17">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.25</v>
+        <v>7.647058823529412</v>
       </c>
     </row>
     <row r="18">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.75</v>
+        <v>1.807228915662651</v>
       </c>
     </row>
     <row r="19">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.75</v>
+        <v>10.43956043956044</v>
       </c>
     </row>
     <row r="20">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.75</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="21">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2.325581395348837</v>
       </c>
     </row>
     <row r="22">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.25</v>
+        <v>3.08641975308642</v>
       </c>
     </row>
     <row r="23">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.75</v>
+        <v>9.146341463414634</v>
       </c>
     </row>
     <row r="25">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.25</v>
+        <v>3.08641975308642</v>
       </c>
     </row>
     <row r="26">
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.75</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="27">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>9.195402298850574</v>
       </c>
     </row>
     <row r="28">
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>7.407407407407407</v>
       </c>
     </row>
     <row r="29">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.75</v>
+        <v>1.764705882352941</v>
       </c>
     </row>
     <row r="30">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.75</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="31">
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.25</v>
+        <v>8.227848101265822</v>
       </c>
     </row>
     <row r="32">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>9.411764705882353</v>
       </c>
     </row>
     <row r="33">
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.25</v>
+        <v>11.18421052631579</v>
       </c>
     </row>
     <row r="34">
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.75</v>
+        <v>8.823529411764707</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.75</v>
+        <v>8.928571428571429</v>
       </c>
     </row>
     <row r="36">
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>20.22471910112359</v>
       </c>
     </row>
     <row r="37">
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="38">
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.25</v>
+        <v>9.444444444444445</v>
       </c>
     </row>
     <row r="39">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.5</v>
+        <v>8.641975308641975</v>
       </c>
     </row>
     <row r="40">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.5</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="41">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.75</v>
+        <v>6.111111111111111</v>
       </c>
     </row>
     <row r="42">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.25</v>
+        <v>10.11904761904762</v>
       </c>
     </row>
     <row r="43">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.25</v>
+        <v>2.941176470588235</v>
       </c>
     </row>
     <row r="44">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.25</v>
+        <v>4.639175257731959</v>
       </c>
     </row>
     <row r="45">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>4.705882352941176</v>
       </c>
     </row>
     <row r="46">
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>7.058823529411764</v>
       </c>
     </row>
     <row r="47">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.25</v>
+        <v>7.222222222222221</v>
       </c>
     </row>
     <row r="48">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4.597701149425287</v>
       </c>
     </row>
     <row r="49">
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.25</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="50">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.75</v>
+        <v>4.320987654320986</v>
       </c>
     </row>
     <row r="51">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.75</v>
+        <v>8.823529411764707</v>
       </c>
     </row>
     <row r="52">
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.25</v>
+        <v>2.717391304347826</v>
       </c>
     </row>
     <row r="53">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.75</v>
+        <v>8.720930232558139</v>
       </c>
     </row>
     <row r="54">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="55">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.25</v>
+        <v>8.024691358024691</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.75</v>
+        <v>6.707317073170732</v>
       </c>
     </row>
     <row r="57">
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.5</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="58">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.25</v>
+        <v>7.647058823529412</v>
       </c>
     </row>
     <row r="60">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.75</v>
+        <v>1.648351648351648</v>
       </c>
     </row>
     <row r="61">
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.5</v>
+        <v>8.045977011494253</v>
       </c>
     </row>
     <row r="62">
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.25</v>
+        <v>0.6578947368421052</v>
       </c>
     </row>
     <row r="63">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>11.9047619047619</v>
       </c>
     </row>
     <row r="64">
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.5</v>
+        <v>6.172839506172839</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.012048192771084</v>
       </c>
     </row>
     <row r="3">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18.45238095238095</v>
       </c>
     </row>
     <row r="5">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.411764705882353</v>
       </c>
     </row>
     <row r="6">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="7">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="8">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.92134831460674</v>
       </c>
     </row>
     <row r="9">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>31.09756097560976</v>
       </c>
     </row>
     <row r="10">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.04761904761905</v>
       </c>
     </row>
     <row r="11">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10.79545454545455</v>
       </c>
     </row>
     <row r="12">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="14">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>15.95744680851064</v>
       </c>
     </row>
     <row r="15">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="16">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>11.04651162790698</v>
       </c>
     </row>
     <row r="17">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>14.11764705882353</v>
       </c>
     </row>
     <row r="18">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2.409638554216868</v>
       </c>
     </row>
     <row r="19">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.747252747252747</v>
       </c>
     </row>
     <row r="20">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="21">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>12.20930232558139</v>
       </c>
     </row>
     <row r="22">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>12.34567901234568</v>
       </c>
     </row>
     <row r="23">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="24">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>10.97560975609756</v>
       </c>
     </row>
     <row r="25">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>12.34567901234568</v>
       </c>
     </row>
     <row r="26">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.222222222222222</v>
       </c>
     </row>
     <row r="27">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>17.81609195402299</v>
       </c>
     </row>
     <row r="28">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>19.1358024691358</v>
       </c>
     </row>
     <row r="29">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.470588235294119</v>
       </c>
     </row>
     <row r="30">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="31">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>5.063291139240507</v>
       </c>
     </row>
     <row r="32">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3.529411764705882</v>
       </c>
     </row>
     <row r="33">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3.947368421052631</v>
       </c>
     </row>
     <row r="34">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="36">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>17.97752808988764</v>
       </c>
     </row>
     <row r="37">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="38">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>12.22222222222222</v>
       </c>
     </row>
     <row r="39">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2.469135802469136</v>
       </c>
     </row>
     <row r="40">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>10.43956043956044</v>
       </c>
     </row>
     <row r="41">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="42">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="43">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
     </row>
     <row r="44">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.82474226804124</v>
       </c>
     </row>
     <row r="45">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>7.058823529411764</v>
       </c>
     </row>
     <row r="46">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>11.17647058823529</v>
       </c>
     </row>
     <row r="47">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>5.747126436781609</v>
       </c>
     </row>
     <row r="49">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>10.49382716049383</v>
       </c>
     </row>
     <row r="50">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>9.25925925925926</v>
       </c>
     </row>
     <row r="51">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>18.23529411764706</v>
       </c>
     </row>
     <row r="52">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>10.32608695652174</v>
       </c>
     </row>
     <row r="53">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>11.62790697674419</v>
       </c>
     </row>
     <row r="54">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>14.70588235294118</v>
       </c>
     </row>
     <row r="55">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>9.25925925925926</v>
       </c>
     </row>
     <row r="56">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>17.85714285714286</v>
       </c>
     </row>
     <row r="58">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="59">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>9.411764705882353</v>
       </c>
     </row>
     <row r="60">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2.197802197802198</v>
       </c>
     </row>
     <row r="61">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>6.896551724137931</v>
       </c>
     </row>
     <row r="62">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>7.894736842105263</v>
       </c>
     </row>
     <row r="63">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>17.26190476190476</v>
       </c>
     </row>
     <row r="64">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>9.876543209876543</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.409638554216868</v>
       </c>
     </row>
     <row r="3">
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.493506493506493</v>
       </c>
     </row>
     <row r="4">
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="5">
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.19047619047619</v>
       </c>
     </row>
     <row r="7">
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.197802197802198</v>
       </c>
     </row>
     <row r="8">
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.617977528089887</v>
       </c>
     </row>
     <row r="9">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.439024390243903</v>
       </c>
     </row>
     <row r="10">
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="11">
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.296703296703297</v>
       </c>
     </row>
     <row r="14">
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3.191489361702127</v>
       </c>
     </row>
     <row r="15">
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.488372093023256</v>
       </c>
     </row>
     <row r="17">
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.058823529411764</v>
       </c>
     </row>
     <row r="18">
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7.228915662650602</v>
       </c>
     </row>
     <row r="19">
@@ -4583,7 +4583,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.098901098901099</v>
       </c>
     </row>
     <row r="20">
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.761904761904763</v>
       </c>
     </row>
     <row r="21">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4.651162790697674</v>
       </c>
     </row>
     <row r="22">
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="24">
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
     </row>
     <row r="28">
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4.938271604938271</v>
       </c>
     </row>
     <row r="29">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5.952380952380952</v>
       </c>
     </row>
     <row r="31">
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6.329113924050633</v>
       </c>
     </row>
     <row r="32">
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="33">
@@ -4723,7 +4723,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="34">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3.529411764705882</v>
       </c>
     </row>
     <row r="35">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="36">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>3.370786516853932</v>
       </c>
     </row>
     <row r="37">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="38">
@@ -4813,7 +4813,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="43">
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="44">
@@ -4833,7 +4833,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.061855670103093</v>
       </c>
     </row>
     <row r="45">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.529411764705882</v>
       </c>
     </row>
     <row r="46">
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="47">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>3.448275862068965</v>
       </c>
     </row>
     <row r="49">
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>6.172839506172839</v>
       </c>
     </row>
     <row r="50">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1.234567901234568</v>
       </c>
     </row>
     <row r="51">
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>4.705882352941176</v>
       </c>
     </row>
     <row r="52">
@@ -4913,7 +4913,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>3.260869565217391</v>
       </c>
     </row>
     <row r="53">
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>3.488372093023256</v>
       </c>
     </row>
     <row r="54">
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="55">
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>4.938271604938271</v>
       </c>
     </row>
     <row r="56">
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>4.761904761904763</v>
       </c>
     </row>
     <row r="58">
@@ -4973,7 +4973,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="60">
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>5.747126436781609</v>
       </c>
     </row>
     <row r="62">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="63">
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="64">
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>6.172839506172839</v>
       </c>
     </row>
   </sheetData>
@@ -5073,6 +5073,9 @@
           <t>Honda HR-V</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5080,6 +5083,9 @@
           <t>Dacia Jogger</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5087,6 +5093,9 @@
           <t>DS 4</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5094,6 +5103,9 @@
           <t>Volvo C40 Recharge</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5101,6 +5113,9 @@
           <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5108,6 +5123,9 @@
           <t>Kia EV6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5115,6 +5133,9 @@
           <t>VW Multivan</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5122,6 +5143,9 @@
           <t>Peugeot 308</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5129,6 +5153,9 @@
           <t>ORA FUNKY CAT</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5136,6 +5163,9 @@
           <t>WEY Coffee 01</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5143,6 +5173,9 @@
           <t>Kia Niro</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5150,6 +5183,9 @@
           <t>Genesis GV60</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5157,6 +5193,9 @@
           <t>Tesla Model Y</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5164,6 +5203,9 @@
           <t>Land Rover Discovery Sport</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5171,6 +5213,9 @@
           <t>CHERY OMODA5</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5178,6 +5223,9 @@
           <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5185,6 +5233,9 @@
           <t>Volkswagen Touran</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5192,6 +5243,9 @@
           <t>Lexus RX</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5199,6 +5253,9 @@
           <t>Skoda Octavia</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5206,6 +5263,9 @@
           <t>MG 4 Electric</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5213,6 +5273,9 @@
           <t>Ford Ranger</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5220,6 +5283,9 @@
           <t>Lucid Air</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5227,6 +5293,9 @@
           <t>Jeep Grand Cherokee</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5234,6 +5303,9 @@
           <t>Volkswagen Amarok</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5241,6 +5313,9 @@
           <t>Mercedes-Benz GLC</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5248,6 +5323,9 @@
           <t>Maxus MIFA 9</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5255,6 +5333,9 @@
           <t>Ford Puma</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5262,6 +5343,9 @@
           <t>BMW 2 Series Coupé</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5269,6 +5353,9 @@
           <t>Renault Megane E-Tech</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5276,6 +5363,9 @@
           <t>Volkswagen Polo</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5283,6 +5373,9 @@
           <t>Lexus NX</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5290,6 +5383,9 @@
           <t>Volkswagen Taigo</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5297,6 +5393,9 @@
           <t>Nissan Ariya</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5304,6 +5403,9 @@
           <t>smart #1</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5311,6 +5413,9 @@
           <t>Hyundai IONIQ 6</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5318,6 +5423,9 @@
           <t>Toyota Corolla Cross</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5325,6 +5433,9 @@
           <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5332,6 +5443,9 @@
           <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5339,6 +5453,9 @@
           <t>NIO ET7</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5346,6 +5463,9 @@
           <t>Land Rover Range Rover</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5353,6 +5473,9 @@
           <t>Renault Austral</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5360,6 +5483,9 @@
           <t>DS 9</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5367,6 +5493,9 @@
           <t>Tesla Model S</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5374,6 +5503,9 @@
           <t>Honda Civic</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5381,6 +5513,9 @@
           <t>Nissan X-Trail</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5388,6 +5523,9 @@
           <t>WEY Coffee 02</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5395,6 +5533,9 @@
           <t>Toyota bZ4X</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5402,6 +5543,9 @@
           <t>Seat Ibiza</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5409,6 +5553,9 @@
           <t>BMW X1</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5416,6 +5563,9 @@
           <t>Mobilize Limo</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5423,6 +5573,9 @@
           <t>Mercedes-EQ EQE</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5430,6 +5583,9 @@
           <t>BYD Atto 3</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5437,6 +5593,9 @@
           <t>Citroën C5 X</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5444,6 +5603,9 @@
           <t>SEAT Arona</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5451,6 +5613,9 @@
           <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5458,6 +5623,9 @@
           <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5465,6 +5633,9 @@
           <t>Volkswagen Golf</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5472,6 +5643,9 @@
           <t>Kia Sportage</t>
         </is>
       </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5479,6 +5653,9 @@
           <t>BMW i4</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5486,6 +5663,9 @@
           <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5493,6 +5673,9 @@
           <t>Toyota Aygo X</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5500,12 +5683,18 @@
           <t>Alfa Romeo Tonale</t>
         </is>
       </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
           <t>Cupra Born</t>
         </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
